--- a/Documentação/Planilhas/Layouts/Relatorio_Historico_Ativacao_Cancelamento.xlsx
+++ b/Documentação/Planilhas/Layouts/Relatorio_Historico_Ativacao_Cancelamento.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
     <sheet name="stg_hist_ati_can" sheetId="113" r:id="rId2"/>
-    <sheet name="ods_hist_alt_ati_can_prod" sheetId="115" r:id="rId3"/>
+    <sheet name="stg_hist_ati_can2" sheetId="116" r:id="rId3"/>
+    <sheet name="ods_hist_alt_ati_can_prod" sheetId="115" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>Campo</t>
   </si>
@@ -90,9 +91,6 @@
     <t>[com].[stg_hist_ati_can]</t>
   </si>
   <si>
-    <t>N:\Migracao\Relatório Histórico Ativação Cancelamento\Relatorio_Cancelamento\stg_hist_ati_can_prod_ln.dtsx</t>
-  </si>
-  <si>
     <t>[com].[ods_hist_alt_ati_can_prod]</t>
   </si>
   <si>
@@ -102,7 +100,28 @@
     <t>ds_status</t>
   </si>
   <si>
-    <t>N:\Migracao\Relatório Histórico Ativação Cancelamento\Relatorio_Cancelamento\ods_hist_ati_can_prod_ln.dtsx</t>
+    <t>N:\Migracao\Relatório Histórico Ativação Cancelamento_LN\Relatorio_Cancelamento\stg_hist_ati_can_prod_ln.dtsx</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Relatório Histórico Ativação Cancelamento_LN\Relatorio_Cancelamento\ods_hist_ati_can_prod_ln.dtsx</t>
+  </si>
+  <si>
+    <t>[com].[stg_hist_ati_can2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                       </t>
+  </si>
+  <si>
+    <t>STG_SKU</t>
+  </si>
+  <si>
+    <t>MIS_MIGRACAO</t>
+  </si>
+  <si>
+    <t>com.sp_prod_alt_can</t>
+  </si>
+  <si>
+    <t>com.stg_hist_ati_can2</t>
   </si>
 </sst>
 </file>
@@ -377,7 +396,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -427,6 +446,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -495,6 +517,51 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -824,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -865,29 +932,37 @@
       </c>
       <c r="D3" s="13" t="str">
         <f>stg_hist_ati_can!B10</f>
-        <v>N:\Migracao\Relatório Histórico Ativação Cancelamento\Relatorio_Cancelamento\stg_hist_ati_can_prod_ln.dtsx</v>
+        <v>N:\Migracao\Relatório Histórico Ativação Cancelamento_LN\Relatorio_Cancelamento\stg_hist_ati_can_prod_ln.dtsx</v>
       </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="18" t="str">
+        <f>stg_hist_ati_can2!B9</f>
+        <v>[com].[stg_hist_ati_can2]</v>
+      </c>
+      <c r="C4" s="16" t="str">
+        <f>stg_hist_ati_can2!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D4" s="13" t="str">
+        <f>stg_hist_ati_can2!B10</f>
+        <v>N:\Migracao\Relatório Histórico Ativação Cancelamento_LN\Relatorio_Cancelamento\stg_hist_ati_can_prod_ln.dtsx</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="18" t="str">
         <f>ods_hist_alt_ati_can_prod!B9</f>
         <v>[com].[ods_hist_alt_ati_can_prod]</v>
       </c>
-      <c r="C4" s="16" t="str">
+      <c r="C5" s="16" t="str">
         <f>ods_hist_alt_ati_can_prod!B8</f>
         <v>MIS_ODS</v>
       </c>
-      <c r="D4" s="13" t="str">
-        <f>ods_hist_alt_ati_can_prod!B10</f>
-        <v>N:\Migracao\Relatório Histórico Ativação Cancelamento\Relatorio_Cancelamento\ods_hist_ati_can_prod_ln.dtsx</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="18"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:5">
@@ -903,10 +978,10 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="16"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="17"/>
@@ -921,10 +996,16 @@
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
   </sheetData>
   <sortState ref="B3:E26">
@@ -932,7 +1013,8 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B3" location="stg_hist_ati_can!A1" display="stg_hist_ati_can!A1"/>
-    <hyperlink ref="B4" location="ods_hist_alt_ati_can_prod!A1" display="ods_hist_alt_ati_can_prod!A1"/>
+    <hyperlink ref="B5" location="ods_hist_alt_ati_can_prod!A1" display="ods_hist_alt_ati_can_prod!A1"/>
+    <hyperlink ref="B4" location="stg_hist_ati_can2!A1" display="stg_hist_ati_can2!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -943,7 +1025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -997,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1022,8 +1106,12 @@
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
@@ -1042,8 +1130,8 @@
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,7 +1144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1094,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1102,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1110,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1135,12 +1225,16 @@
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>21</v>
@@ -1150,7 +1244,126 @@
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>20</v>
